--- a/策划/表格配置/J-建筑.xlsx
+++ b/策划/表格配置/J-建筑.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A34D0B1-DC4C-4999-AA86-9E7845ACA91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9657BCF-E98D-4E35-8F59-D077A23F6C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>int</t>
   </si>
@@ -445,6 +445,18 @@
   </si>
   <si>
     <t>upgradeSprite</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地面积</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +574,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -588,6 +600,66 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
@@ -668,66 +740,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
@@ -768,6 +780,21 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
@@ -808,7 +835,12 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <u val="none"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
         <name val="微软雅黑"/>
@@ -942,28 +974,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:T17" totalsRowShown="0">
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{8EE2448B-027D-42B8-B1B4-05CD154B7274}" name="sceneID" dataDxfId="18"/>
-    <tableColumn id="24" xr3:uid="{3A70B8AF-4197-4485-9965-0A410199A79C}" name="upgradeLimit" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{4C3007C2-D832-4F8E-B528-7852A25518F2}" name="SpriteName" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{2B807019-46FB-4F08-B8F7-32D44B2A633B}" name="buildPrice" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{3BFFFB3C-261A-41BF-AF83-227A73000C7B}" name="buildItems" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{25054AFE-6527-4806-AC20-08BF460E2175}" name="buildDays" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{DE96ACC9-4C2B-4F92-96C3-1239562BF941}" name="buildSprite" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="upgradePrice" dataDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{6E5A14F4-0A62-4B43-B555-53FA28BE2CC6}" name="upgrade1Item" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{B9542284-C256-42F2-96E4-FB815A3FA459}" name="upgrade2Item" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{90D809BB-4431-4F30-BD99-746BEF36B506}" name="upgrade3Item" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{11433736-04F4-49A8-9845-513B50B721C1}" name="upgrade4Item" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{DBB5B818-E8A4-4EC4-A459-FF1EC6EA6D19}" name="upgradeDays" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{EE6F1700-7B53-46A7-95E1-8F965BCE6840}" name="upgradeSprite" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="colliderOffset" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="colliderSize" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="entranceOffset" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{CE422D62-3C94-444E-BE5E-9B1D5EC7632C}" name="colliderRadius" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:U17" totalsRowShown="0">
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="20"/>
+    <tableColumn id="20" xr3:uid="{8EE2448B-027D-42B8-B1B4-05CD154B7274}" name="sceneID" dataDxfId="19"/>
+    <tableColumn id="24" xr3:uid="{3A70B8AF-4197-4485-9965-0A410199A79C}" name="upgradeLimit" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{4C3007C2-D832-4F8E-B528-7852A25518F2}" name="SpriteName" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{2B807019-46FB-4F08-B8F7-32D44B2A633B}" name="buildPrice" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{3BFFFB3C-261A-41BF-AF83-227A73000C7B}" name="buildItems" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{25054AFE-6527-4806-AC20-08BF460E2175}" name="buildDays" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{DE96ACC9-4C2B-4F92-96C3-1239562BF941}" name="buildSprite" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="upgradePrice" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{6E5A14F4-0A62-4B43-B555-53FA28BE2CC6}" name="upgrade1Item" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{B9542284-C256-42F2-96E4-FB815A3FA459}" name="upgrade2Item" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{90D809BB-4431-4F30-BD99-746BEF36B506}" name="upgrade3Item" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{11433736-04F4-49A8-9845-513B50B721C1}" name="upgrade4Item" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{DBB5B818-E8A4-4EC4-A459-FF1EC6EA6D19}" name="upgradeDays" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{EE6F1700-7B53-46A7-95E1-8F965BCE6840}" name="upgradeSprite" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F8AE66E7-21C0-45FB-8C51-06E6701444F2}" name="size" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="colliderOffset" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="colliderSize" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="entranceOffset" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{CE422D62-3C94-444E-BE5E-9B1D5EC7632C}" name="colliderRadius" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1227,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1244,14 +1277,14 @@
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="14" width="19.25" style="2" customWidth="1"/>
     <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="19.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.125" customWidth="1"/>
-    <col min="18" max="18" width="16.75" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
-    <col min="20" max="20" width="18.625" customWidth="1"/>
+    <col min="16" max="17" width="19.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.125" customWidth="1"/>
+    <col min="19" max="19" width="16.75" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
+    <col min="21" max="21" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1301,19 +1334,22 @@
         <v>55</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1399,7 @@
         <v>28</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>33</v>
@@ -1374,8 +1410,11 @@
       <c r="T2" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="U2" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1425,19 +1464,22 @@
         <v>59</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1471,19 +1513,22 @@
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="5">
+      <c r="U4" s="5">
         <v>0.34</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1516,32 +1561,35 @@
         <v>16</v>
       </c>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="5"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="H6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="5"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="H7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="5"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1562,8 +1610,9 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1584,8 +1633,9 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1606,8 +1656,9 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1628,8 +1679,9 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1650,8 +1702,9 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1672,8 +1725,9 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1694,8 +1748,9 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1716,8 +1771,9 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1738,8 +1794,9 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1760,6 +1817,7 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/策划/表格配置/J-建筑.xlsx
+++ b/策划/表格配置/J-建筑.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9657BCF-E98D-4E35-8F59-D077A23F6C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6F9477-2784-46E1-BFC6-E11786764E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Crops" sheetId="1" r:id="rId1"/>
+    <sheet name="Building" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -211,12 +211,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{ABA0372B-765C-45A4-96B5-234D29C4B32F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>陈吱吱:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+第一位宽
+第二位高</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>int</t>
   </si>
@@ -458,6 +485,20 @@
   <si>
     <t>5,3</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barn.,Coop.,Coop.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barn.,Coop.,Coop.,Coop.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>Coop.</t>
   </si>
 </sst>
 </file>
@@ -580,6 +621,66 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
@@ -594,66 +695,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -992,11 +1033,11 @@
     <tableColumn id="21" xr3:uid="{11433736-04F4-49A8-9845-513B50B721C1}" name="upgrade4Item" dataDxfId="7"/>
     <tableColumn id="16" xr3:uid="{DBB5B818-E8A4-4EC4-A459-FF1EC6EA6D19}" name="upgradeDays" dataDxfId="6"/>
     <tableColumn id="15" xr3:uid="{EE6F1700-7B53-46A7-95E1-8F965BCE6840}" name="upgradeSprite" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F8AE66E7-21C0-45FB-8C51-06E6701444F2}" name="size" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="colliderOffset" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="colliderSize" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="entranceOffset" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{CE422D62-3C94-444E-BE5E-9B1D5EC7632C}" name="colliderRadius" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F8AE66E7-21C0-45FB-8C51-06E6701444F2}" name="size" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="colliderOffset" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="colliderSize" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="entranceOffset" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{CE422D62-3C94-444E-BE5E-9B1D5EC7632C}" name="colliderRadius" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1262,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1272,7 +1313,7 @@
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="17.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.25" style="2" customWidth="1"/>
     <col min="6" max="7" width="19.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="14" width="19.25" style="2" customWidth="1"/>
@@ -1393,7 +1434,7 @@
         <v>4</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>28</v>
@@ -1492,26 +1533,42 @@
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="O4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="Q4" s="4" t="s">
         <v>62</v>
       </c>
@@ -1541,33 +1598,57 @@
       <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="J5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="Q5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="5"/>
+      <c r="R5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>

--- a/策划/表格配置/J-建筑.xlsx
+++ b/策划/表格配置/J-建筑.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6F9477-2784-46E1-BFC6-E11786764E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF2F25D-4125-4024-B75D-77CFA85BCB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>陈吱吱</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{85EEC230-10D6-4BB7-B962-8830CA682133}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{7AA88E5C-CA24-4893-96ED-F681150CC166}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9A725CFB-615E-4C7D-9908-8448BC76E9AF}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9A725CFB-615E-4C7D-9908-8448BC76E9AF}">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{6CA52233-01C0-447D-A4CA-F14F94F31CC6}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{6CA52233-01C0-447D-A4CA-F14F94F31CC6}">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{55365E71-0E5F-414E-903A-2EE5F458B355}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{55365E71-0E5F-414E-903A-2EE5F458B355}">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{2DB92323-1C48-4C3B-873A-7A6553190651}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{2DB92323-1C48-4C3B-873A-7A6553190651}">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{D58BFDCC-46CF-4A54-AA47-E6FF535E806B}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{D58BFDCC-46CF-4A54-AA47-E6FF535E806B}">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{431AB913-D54B-4421-840C-F570B2946247}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{431AB913-D54B-4421-840C-F570B2946247}">
       <text>
         <r>
           <rPr>
@@ -211,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{ABA0372B-765C-45A4-96B5-234D29C4B32F}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{ABA0372B-765C-45A4-96B5-234D29C4B32F}">
       <text>
         <r>
           <rPr>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>int</t>
   </si>
@@ -499,6 +499,14 @@
   </si>
   <si>
     <t>Coop.</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingTypeID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -615,7 +623,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -945,6 +953,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1015,9 +1043,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:U17" totalsRowShown="0">
-  <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:V17" totalsRowShown="0">
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{973450C3-6B65-4021-BB41-E16806A78521}" name="buildingTypeID" dataDxfId="20"/>
     <tableColumn id="20" xr3:uid="{8EE2448B-027D-42B8-B1B4-05CD154B7274}" name="sceneID" dataDxfId="19"/>
     <tableColumn id="24" xr3:uid="{3A70B8AF-4197-4485-9965-0A410199A79C}" name="upgradeLimit" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="17"/>
@@ -1301,96 +1330,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="19.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="14" width="19.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="17" width="19.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="18.125" customWidth="1"/>
-    <col min="19" max="19" width="16.75" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.25" style="2" customWidth="1"/>
+    <col min="7" max="8" width="19.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="15" width="19.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.875" customWidth="1"/>
+    <col min="17" max="18" width="19.25" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.125" customWidth="1"/>
+    <col min="20" max="20" width="16.75" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1401,25 +1434,25 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>4</v>
@@ -1437,13 +1470,13 @@
         <v>4</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>33</v>
@@ -1454,105 +1487,111 @@
       <c r="U2" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="V2" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>65</v>
@@ -1564,60 +1603,63 @@
         <v>65</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="5">
+      <c r="V4" s="5">
         <v>0.34</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>65</v>
@@ -1629,48 +1671,53 @@
         <v>65</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <v>0.34</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="P6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="5"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="P7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="5"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1692,8 +1739,9 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1715,8 +1763,9 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1738,8 +1787,9 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1761,8 +1811,9 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1784,8 +1835,9 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1807,8 +1859,9 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1830,8 +1883,9 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1853,8 +1907,9 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1876,8 +1931,9 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1899,6 +1955,7 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/策划/表格配置/J-建筑.xlsx
+++ b/策划/表格配置/J-建筑.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF2F25D-4125-4024-B75D-77CFA85BCB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1B5C8B-04ED-4AFA-BD6E-5AFC7BB34476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>int</t>
   </si>
@@ -315,18 +315,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>碰撞体位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>入口位置</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>碰撞体大小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>建造所需物品</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -424,26 +416,10 @@
     <t>upgradeDays</t>
   </si>
   <si>
-    <t>colliderSize</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>colliderOffset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>entranceOffset</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0,1.12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.17,2.62</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>入口半径</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -506,6 +482,10 @@
   </si>
   <si>
     <t>buildingTypeID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -623,37 +603,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <b val="0"/>
@@ -1043,28 +993,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:V17" totalsRowShown="0">
-  <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{973450C3-6B65-4021-BB41-E16806A78521}" name="buildingTypeID" dataDxfId="20"/>
-    <tableColumn id="20" xr3:uid="{8EE2448B-027D-42B8-B1B4-05CD154B7274}" name="sceneID" dataDxfId="19"/>
-    <tableColumn id="24" xr3:uid="{3A70B8AF-4197-4485-9965-0A410199A79C}" name="upgradeLimit" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{4C3007C2-D832-4F8E-B528-7852A25518F2}" name="SpriteName" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{2B807019-46FB-4F08-B8F7-32D44B2A633B}" name="buildPrice" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{3BFFFB3C-261A-41BF-AF83-227A73000C7B}" name="buildItems" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{25054AFE-6527-4806-AC20-08BF460E2175}" name="buildDays" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{DE96ACC9-4C2B-4F92-96C3-1239562BF941}" name="buildSprite" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="upgradePrice" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{6E5A14F4-0A62-4B43-B555-53FA28BE2CC6}" name="upgrade1Item" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{B9542284-C256-42F2-96E4-FB815A3FA459}" name="upgrade2Item" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{90D809BB-4431-4F30-BD99-746BEF36B506}" name="upgrade3Item" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{11433736-04F4-49A8-9845-513B50B721C1}" name="upgrade4Item" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{DBB5B818-E8A4-4EC4-A459-FF1EC6EA6D19}" name="upgradeDays" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{EE6F1700-7B53-46A7-95E1-8F965BCE6840}" name="upgradeSprite" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F8AE66E7-21C0-45FB-8C51-06E6701444F2}" name="size" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="colliderOffset" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="colliderSize" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:T17" totalsRowShown="0">
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{973450C3-6B65-4021-BB41-E16806A78521}" name="buildingTypeID" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{8EE2448B-027D-42B8-B1B4-05CD154B7274}" name="sceneID" dataDxfId="17"/>
+    <tableColumn id="24" xr3:uid="{3A70B8AF-4197-4485-9965-0A410199A79C}" name="upgradeLimit" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name" dataDxfId="15"/>
+    <tableColumn id="22" xr3:uid="{4C3007C2-D832-4F8E-B528-7852A25518F2}" name="SpriteName" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{2B807019-46FB-4F08-B8F7-32D44B2A633B}" name="buildPrice" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{3BFFFB3C-261A-41BF-AF83-227A73000C7B}" name="buildItems" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{25054AFE-6527-4806-AC20-08BF460E2175}" name="buildDays" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{DE96ACC9-4C2B-4F92-96C3-1239562BF941}" name="buildSprite" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="upgradePrice" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{6E5A14F4-0A62-4B43-B555-53FA28BE2CC6}" name="upgrade1Item" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{B9542284-C256-42F2-96E4-FB815A3FA459}" name="upgrade2Item" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{90D809BB-4431-4F30-BD99-746BEF36B506}" name="upgrade3Item" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{11433736-04F4-49A8-9845-513B50B721C1}" name="upgrade4Item" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{DBB5B818-E8A4-4EC4-A459-FF1EC6EA6D19}" name="upgradeDays" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{EE6F1700-7B53-46A7-95E1-8F965BCE6840}" name="upgradeSprite" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F8AE66E7-21C0-45FB-8C51-06E6701444F2}" name="size" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="entranceOffset" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{CE422D62-3C94-444E-BE5E-9B1D5EC7632C}" name="colliderRadius" dataDxfId="0"/>
   </tableColumns>
@@ -1330,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1349,81 +1297,73 @@
     <col min="10" max="15" width="19.25" style="2" customWidth="1"/>
     <col min="16" max="16" width="17.875" customWidth="1"/>
     <col min="17" max="18" width="19.25" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.125" customWidth="1"/>
-    <col min="20" max="20" width="16.75" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="18.625" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1437,10 +1377,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>9</v>
@@ -1452,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>4</v>
@@ -1473,93 +1413,81 @@
         <v>4</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1567,67 +1495,61 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" s="5">
+        <v>48</v>
+      </c>
+      <c r="T4" s="5">
         <v>0.34</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1641,83 +1563,73 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="S5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" s="5">
+        <v>48</v>
+      </c>
+      <c r="T5" s="5">
         <v>0.34</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="I6" s="2"/>
       <c r="P6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="5"/>
+      <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="I7" s="2"/>
       <c r="P7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="5"/>
+      <c r="T7" s="5"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1738,10 +1650,8 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1762,10 +1672,8 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1786,10 +1694,8 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1810,10 +1716,8 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1834,10 +1738,8 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1858,10 +1760,8 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1882,10 +1782,8 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1906,10 +1804,8 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1930,10 +1826,8 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1954,8 +1848,6 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/策划/表格配置/J-建筑.xlsx
+++ b/策划/表格配置/J-建筑.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1B5C8B-04ED-4AFA-BD6E-5AFC7BB34476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E529A05-0420-4371-84DC-33C68B3545D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>int</t>
   </si>
@@ -486,6 +486,10 @@
   </si>
   <si>
     <t>7,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.45,-0.21</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1280,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1605,7 +1609,7 @@
         <v>63</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="T5" s="5">
         <v>0.34</v>
